--- a/5_kc_Human.xlsx
+++ b/5_kc_Human.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/GitHub/Visual-Similarity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77B3C99-3F4B-F345-957F-3584352DE6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AD294B-AB90-3148-8BC1-AB7DC9403067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="0" windowWidth="14700" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10900" yWindow="0" windowWidth="14700" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -754,34 +754,34 @@
     <t>perimetric_complexity</t>
   </si>
   <si>
-    <t>Data/5_Wang_2017/5_Chinese_01.BMP</t>
-  </si>
-  <si>
-    <t>Data/5_Wang_2017/5_Chinese_02.BMP</t>
-  </si>
-  <si>
     <t>Data/5_Wang_2017/5_Chinese_03.BMP</t>
   </si>
   <si>
-    <t>Data/5_Wang_2017/5_Chinese_04.BMP</t>
-  </si>
-  <si>
-    <t>Data/5_Wang_2017/5_Chinese_05.BMP</t>
-  </si>
-  <si>
-    <t>Data/5_Wang_2017/5_Chinese_07.BMP</t>
-  </si>
-  <si>
-    <t>Data/5_Wang_2017/5_Chinese_06.BMP</t>
-  </si>
-  <si>
-    <t>Data/5_Wang_2017/5_Chinese_08.BMP</t>
-  </si>
-  <si>
-    <t>Data/5_Wang_2017/5_Chinese_09.BMP</t>
-  </si>
-  <si>
     <t>disconnected_strokes</t>
+  </si>
+  <si>
+    <t>Data/5_Wang_2017/5_Chinese_1.BMP</t>
+  </si>
+  <si>
+    <t>Data/5_Wang_2017/5_Chinese_2.BMP</t>
+  </si>
+  <si>
+    <t>Data/5_Wang_2017/5_Chinese_4.BMP</t>
+  </si>
+  <si>
+    <t>Data/5_Wang_2017/5_Chinese_5.BMP</t>
+  </si>
+  <si>
+    <t>Data/5_Wang_2017/5_Chinese_6.BMP</t>
+  </si>
+  <si>
+    <t>Data/5_Wang_2017/5_Chinese_7.BMP</t>
+  </si>
+  <si>
+    <t>Data/5_Wang_2017/5_Chinese_8.BMP</t>
+  </si>
+  <si>
+    <t>Data/5_Wang_2017/5_Chinese_9.BMP</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1211,7 @@
         <v>241</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>242</v>
@@ -1219,335 +1219,413 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+        <v>246</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
         <v>14</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="F8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>77</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F17">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
         <v>8</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1555,124 +1633,160 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
+        <v>147</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>106</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23">
         <v>8</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>77</v>
+      </c>
+      <c r="F25">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
       </c>
       <c r="F26">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1680,177 +1794,183 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29">
         <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29">
-        <v>11</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>251</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F30">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
+        <v>155</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1858,45 +1978,45 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35">
         <v>8</v>
       </c>
-      <c r="F35">
-        <v>9</v>
-      </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1904,59 +2024,59 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1965,53 +2085,53 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2019,217 +2139,229 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="D43">
-        <v>7</v>
-      </c>
-      <c r="E43">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>103</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
         <v>5</v>
       </c>
-      <c r="E46">
-        <v>14</v>
-      </c>
       <c r="F46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C48" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51">
         <v>4</v>
-      </c>
-      <c r="E51" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>7</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2237,22 +2369,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2260,82 +2392,94 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="D56">
-        <v>6</v>
-      </c>
-      <c r="E56">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
       </c>
       <c r="F56">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2363,1318 +2507,1174 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
         <v>4</v>
       </c>
-      <c r="E58" t="s">
-        <v>103</v>
-      </c>
-      <c r="F58">
-        <v>6</v>
-      </c>
       <c r="G58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="F60">
         <v>4</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66">
-        <v>9</v>
-      </c>
-      <c r="G66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D67">
         <v>4</v>
       </c>
       <c r="E67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>99</v>
+      </c>
+      <c r="B71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>94</v>
+      </c>
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>111</v>
+      </c>
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>118</v>
+      </c>
+      <c r="B76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" t="s">
+        <v>233</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>113</v>
+      </c>
+      <c r="B77" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
+        <v>198</v>
+      </c>
+      <c r="C78" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
         <v>17</v>
       </c>
-      <c r="F67">
-        <v>15</v>
-      </c>
-      <c r="G67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>87</v>
-      </c>
-      <c r="B68" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
         <v>8</v>
       </c>
-      <c r="F68">
-        <v>4</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>26</v>
-      </c>
-      <c r="B69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69">
-        <v>9</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>39</v>
-      </c>
-      <c r="B70" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70">
-        <v>9</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>35</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71">
-        <v>16</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" t="s">
-        <v>56</v>
-      </c>
-      <c r="D72">
-        <v>7</v>
-      </c>
-      <c r="E72">
-        <v>14</v>
-      </c>
-      <c r="F72">
-        <v>8</v>
-      </c>
-      <c r="G72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>142</v>
-      </c>
-      <c r="C73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73">
-        <v>6</v>
-      </c>
-      <c r="E73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74">
-        <v>6</v>
-      </c>
-      <c r="E74">
-        <v>16</v>
-      </c>
-      <c r="F74">
-        <v>10</v>
-      </c>
-      <c r="G74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>145</v>
-      </c>
-      <c r="C75" t="s">
-        <v>146</v>
-      </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-      <c r="E75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>65</v>
-      </c>
-      <c r="B76" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" t="s">
-        <v>134</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
-      </c>
-      <c r="E76" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>100</v>
+      </c>
+      <c r="B85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
         <v>11</v>
       </c>
-      <c r="F76">
-        <v>6</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>58</v>
-      </c>
-      <c r="B77" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" t="s">
-        <v>120</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77">
-        <v>8</v>
-      </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>80</v>
-      </c>
-      <c r="B78" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" t="s">
-        <v>158</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s">
-        <v>77</v>
-      </c>
-      <c r="F78">
-        <v>14</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>81</v>
-      </c>
-      <c r="B79" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" t="s">
-        <v>160</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79">
-        <v>17</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>9</v>
-      </c>
-      <c r="B80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80">
-        <v>6</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>38</v>
-      </c>
-      <c r="B81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81">
-        <v>17</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>116</v>
-      </c>
-      <c r="B82" t="s">
-        <v>228</v>
-      </c>
-      <c r="C82" t="s">
-        <v>229</v>
-      </c>
-      <c r="D82">
-        <v>3</v>
-      </c>
-      <c r="E82" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82">
-        <v>9</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>86</v>
-      </c>
-      <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83">
-        <v>4</v>
-      </c>
-      <c r="E83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83">
-        <v>7</v>
-      </c>
-      <c r="G83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84">
-        <v>6</v>
-      </c>
-      <c r="E84" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85">
-        <v>5</v>
-      </c>
-      <c r="E85">
-        <v>17</v>
-      </c>
-      <c r="F85">
-        <v>12</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D86">
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E87" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>148</v>
+        <v>178</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88">
-        <v>15</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89">
-        <v>8</v>
-      </c>
-      <c r="G89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>96</v>
+        <v>216</v>
+      </c>
+      <c r="C90" t="s">
+        <v>217</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90">
-        <v>13</v>
-      </c>
-      <c r="G90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="C91" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E91" t="s">
         <v>77</v>
       </c>
-      <c r="F91">
-        <v>6</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="C92" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="D93">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>73</v>
+      </c>
+      <c r="B96" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96">
         <v>5</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>184</v>
-      </c>
-      <c r="C96" t="s">
-        <v>185</v>
-      </c>
-      <c r="D96">
-        <v>6</v>
-      </c>
-      <c r="E96" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
+        <v>82</v>
+      </c>
+      <c r="B97" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97">
         <v>6</v>
       </c>
-      <c r="B97" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97">
-        <v>3</v>
-      </c>
       <c r="E97" t="s">
-        <v>17</v>
-      </c>
-      <c r="F97">
-        <v>7</v>
-      </c>
-      <c r="G97">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B98" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
       </c>
-      <c r="F98">
-        <v>9</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99">
-        <v>12</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="D100">
-        <v>4</v>
-      </c>
-      <c r="E100" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>13</v>
       </c>
       <c r="F100">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C101" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="D101">
-        <v>4</v>
-      </c>
-      <c r="E101" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C104" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="C105" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="D105">
         <v>5</v>
       </c>
-      <c r="E105" t="s">
-        <v>2</v>
+      <c r="E105">
+        <v>15</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="D106">
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106">
-        <v>9</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B107" t="s">
-        <v>155</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>109</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>2</v>
-      </c>
-      <c r="F107">
-        <v>8</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c r="C108" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B109" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="D109">
-        <v>3</v>
-      </c>
-      <c r="E109" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>16</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E110" t="s">
         <v>59</v>
       </c>
-      <c r="F110">
-        <v>16</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B111" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="C111" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D111">
         <v>6</v>
       </c>
-      <c r="E111" t="s">
-        <v>59</v>
+      <c r="E111">
+        <v>16</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B112" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="C112" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="D112">
-        <v>3</v>
-      </c>
-      <c r="E112" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>17</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="C113" t="s">
-        <v>219</v>
+        <v>56</v>
       </c>
       <c r="D113">
-        <v>4</v>
-      </c>
-      <c r="E113" t="s">
-        <v>103</v>
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>14</v>
+      </c>
+      <c r="F113">
+        <v>8</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="C114" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="D114">
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="C115" t="s">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="D115">
-        <v>4</v>
-      </c>
-      <c r="E115" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>15</v>
+      </c>
+      <c r="F115">
+        <v>11</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>2</v>
-      </c>
-      <c r="F116">
-        <v>6</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>59</v>
-      </c>
-      <c r="F117">
-        <v>11</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="B118" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="C118" t="s">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="D118">
-        <v>3</v>
-      </c>
-      <c r="E118" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <v>16</v>
       </c>
       <c r="F118">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="D119">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>106</v>
-      </c>
-      <c r="F119">
-        <v>14</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B120" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C120" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
         <v>5</v>
-      </c>
-      <c r="E120" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B121" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C121" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H121" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:H119">
-      <sortCondition ref="C1:C121"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H121">
+      <sortCondition ref="B1:B121"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
